--- a/requirements/ID.xlsx
+++ b/requirements/ID.xlsx
@@ -1,16 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27610"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sfaily/webinos/webinos-design-data/requirements/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="8300" yWindow="460" windowWidth="38500" windowHeight="21200" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="In scope" sheetId="1" r:id="rId1"/>
     <sheet name="Out of scope" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0" iterateDelta="1E-4" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -627,25 +640,42 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -772,12 +802,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -807,12 +837,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1018,1068 +1048,1067 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32"/>
-    <col min="2" max="4" width="0" hidden="1"/>
-    <col min="5" max="5" width="66.375"/>
-    <col min="6" max="6" width="0" style="1" hidden="1"/>
-    <col min="7" max="9" width="0" hidden="1"/>
-    <col min="14" max="14" width="27.75"/>
+    <col min="1" max="5" width="8.83203125" style="8"/>
+    <col min="6" max="6" width="8.83203125" style="12"/>
+    <col min="7" max="16384" width="8.83203125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="67.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:15" ht="264" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="6" t="s">
+      <c r="C2" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="7" t="s">
+      <c r="F2" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="M2" s="8" t="s">
+      <c r="I2" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="N2" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="8">
+      <c r="O2" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="101.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:15" ht="396" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="6" t="s">
+      <c r="C3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="7" t="s">
+      <c r="F3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="M3" s="8" t="s">
+      <c r="I3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="N3" s="8" t="s">
+      <c r="N3" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="O3" s="8" t="s">
+      <c r="O3" s="11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="90" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:15" ht="312" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="6" t="s">
+      <c r="C4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="7" t="s">
+      <c r="F4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8" t="s">
+      <c r="I4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="O4" s="8" t="s">
+      <c r="O4" s="11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="67.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:15" ht="252" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="6" t="s">
+      <c r="C5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="7" t="s">
+      <c r="F5" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="L5" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="M5" s="8" t="s">
+      <c r="I5" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="N5" s="8" t="s">
+      <c r="N5" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="O5" s="8">
+      <c r="O5" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:15" ht="288" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="6" t="s">
+      <c r="C6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="7" t="s">
+      <c r="F6" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" s="8" t="s">
+      <c r="I6" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="K6" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="L6" s="8" t="s">
+      <c r="L6" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="M6" s="8" t="s">
+      <c r="M6" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="N6" s="8" t="s">
+      <c r="N6" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="O6" s="8" t="s">
+      <c r="O6" s="11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:15" ht="400" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="6" t="s">
+      <c r="C7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="7" t="s">
+      <c r="F7" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8" t="s">
+      <c r="I7" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="O7" s="8">
+      <c r="O7" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="63" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+    <row r="8" spans="1:15" ht="160" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="6" t="s">
+      <c r="C8" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="7" t="s">
+      <c r="F8" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="I8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="L8" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8" t="s">
+      <c r="I8" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="O8" s="8">
+      <c r="O8" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="90" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:15" ht="336" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="6" t="s">
+      <c r="C9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="7" t="s">
+      <c r="F9" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="I9" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K9" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="L9" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8" t="s">
+      <c r="I9" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="O9" s="8">
+      <c r="O9" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="63" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+    <row r="10" spans="1:15" ht="192" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="6" t="s">
+      <c r="C10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="7" t="s">
+      <c r="F10" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="L10" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="M10" s="8" t="s">
+      <c r="I10" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="M10" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="N10" s="8" t="s">
+      <c r="N10" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="O10" s="8" t="s">
+      <c r="O10" s="11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="63" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+    <row r="11" spans="1:15" ht="272" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="6" t="s">
+      <c r="C11" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" s="7" t="s">
+      <c r="F11" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="L11" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="M11" s="8" t="s">
+      <c r="I11" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="M11" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="N11" s="8" t="s">
+      <c r="N11" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="O11" s="8">
+      <c r="O11" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="63" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+    <row r="12" spans="1:15" ht="224" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="6" t="s">
+      <c r="C12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="F12" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" s="7" t="s">
+      <c r="F12" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="H12" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="I12" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K12" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="L12" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="M12" s="8" t="s">
+      <c r="I12" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L12" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="M12" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="N12" s="8" t="s">
+      <c r="N12" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="O12" s="8">
+      <c r="O12" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="252" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+    <row r="13" spans="1:15" ht="324" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="6" t="s">
+      <c r="C13" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G13" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="H13" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="I13" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K13" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="L13" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="M13" s="8" t="s">
+      <c r="I13" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L13" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="M13" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="N13" s="8" t="s">
+      <c r="N13" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="O13" s="8">
+      <c r="O13" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="67.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+    <row r="14" spans="1:15" ht="180" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="6" t="s">
+      <c r="C14" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" s="7" t="s">
+      <c r="F14" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H14" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="I14" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K14" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="L14" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="M14" s="8" t="s">
+      <c r="I14" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K14" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L14" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="M14" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="N14" s="8" t="s">
+      <c r="N14" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="O14" s="8">
+      <c r="O14" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="63" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+    <row r="15" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+      <c r="A15" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="6" t="s">
+      <c r="C15" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="F15" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" s="7" t="s">
+      <c r="F15" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="H15" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="I15" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J15" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K15" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="L15" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8" t="s">
+      <c r="I15" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L15" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="O15" s="8">
+      <c r="O15" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="63" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+    <row r="16" spans="1:15" ht="160" x14ac:dyDescent="0.2">
+      <c r="A16" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="6" t="s">
+      <c r="C16" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" s="7" t="s">
+      <c r="F16" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="H16" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="I16" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J16" s="8" t="s">
+      <c r="I16" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="K16" s="8" t="s">
+      <c r="K16" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="L16" s="8" t="s">
+      <c r="L16" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8" t="s">
+      <c r="M16" s="11"/>
+      <c r="N16" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="O16" s="8">
+      <c r="O16" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="63" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+    <row r="17" spans="1:15" ht="240" x14ac:dyDescent="0.2">
+      <c r="A17" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="6" t="s">
+      <c r="C17" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="F17" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="H17" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="I17" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J17" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K17" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="L17" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8" t="s">
+      <c r="I17" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K17" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L17" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="O17" s="8">
+      <c r="O17" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="63" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+    <row r="18" spans="1:15" ht="240" x14ac:dyDescent="0.2">
+      <c r="A18" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="6" t="s">
+      <c r="C18" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="F18" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G18" s="7" t="s">
+      <c r="F18" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="H18" s="7" t="s">
+      <c r="H18" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="I18" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J18" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K18" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="L18" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8" t="s">
+      <c r="I18" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K18" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L18" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="O18" s="8">
+      <c r="O18" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="63" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+    <row r="19" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+      <c r="A19" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="6" t="s">
+      <c r="C19" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G19" s="7" t="s">
+      <c r="F19" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="H19" s="7" t="s">
+      <c r="H19" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="I19" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J19" s="8" t="s">
+      <c r="I19" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J19" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="K19" s="8" t="s">
+      <c r="K19" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="L19" s="8" t="s">
+      <c r="L19" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8" t="s">
+      <c r="M19" s="11"/>
+      <c r="N19" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="O19" s="8"/>
-    </row>
-    <row r="20" spans="1:15" ht="63" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+      <c r="O19" s="11"/>
+    </row>
+    <row r="20" spans="1:15" ht="204" x14ac:dyDescent="0.2">
+      <c r="A20" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" s="6" t="s">
+      <c r="C20" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G20" s="7" t="s">
+      <c r="F20" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="H20" s="7" t="s">
+      <c r="H20" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="I20" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J20" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K20" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="L20" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8" t="s">
+      <c r="I20" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K20" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L20" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="O20" s="8">
+      <c r="O20" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="63" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+    <row r="21" spans="1:15" ht="216" x14ac:dyDescent="0.2">
+      <c r="A21" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="6" t="s">
+      <c r="C21" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="F21" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G21" s="7" t="s">
+      <c r="F21" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="H21" s="7" t="s">
+      <c r="H21" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="I21" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J21" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="L21" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8" t="s">
+      <c r="I21" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J21" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K21" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L21" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="O21" s="8">
+      <c r="O21" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="67.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
+    <row r="22" spans="1:15" ht="320" x14ac:dyDescent="0.2">
+      <c r="A22" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="6" t="s">
+      <c r="C22" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="F22" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G22" s="7" t="s">
+      <c r="F22" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="H22" s="7" t="s">
+      <c r="H22" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="I22" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J22" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K22" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="L22" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8" t="s">
+      <c r="I22" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J22" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K22" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L22" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="O22" s="8">
+      <c r="O22" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="189" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+    <row r="23" spans="1:15" ht="240" x14ac:dyDescent="0.2">
+      <c r="A23" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" s="6" t="s">
+      <c r="C23" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F23" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="G23" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="H23" s="7" t="s">
+      <c r="H23" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="I23" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J23" s="8" t="s">
+      <c r="I23" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J23" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="K23" s="8" t="s">
+      <c r="K23" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="L23" s="8" t="s">
+      <c r="L23" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8" t="s">
+      <c r="M23" s="11"/>
+      <c r="N23" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="O23" s="8">
+      <c r="O23" s="11">
         <v>1</v>
       </c>
     </row>
@@ -2093,306 +2122,299 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="32"/>
-    <col min="5" max="5" width="66.375"/>
-    <col min="6" max="6" width="20.125"/>
-    <col min="7" max="7" width="31.875"/>
-    <col min="9" max="9" width="14.5"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:9" ht="256" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="6" t="s">
+      <c r="C2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="7" t="s">
+      <c r="F2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="4" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:9" ht="144" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="6" t="s">
+      <c r="C3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="7" t="s">
+      <c r="F3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="4" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:9" ht="176" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="6" t="s">
+      <c r="C4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="7" t="s">
+      <c r="F4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="4" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="63" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:9" ht="304" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="6" t="s">
+      <c r="C5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="7" t="s">
+      <c r="F5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="4" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:9" ht="192" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="6" t="s">
+      <c r="C6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="7" t="s">
+      <c r="F6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="4" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:9" ht="208" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="6" t="s">
+      <c r="C7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="7" t="s">
+      <c r="F7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="4" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+    <row r="8" spans="1:9" ht="272" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="6" t="s">
+      <c r="C8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="7" t="s">
+      <c r="F8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="I8" s="4" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:9" ht="208" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="6" t="s">
+      <c r="C9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="7" t="s">
+      <c r="F9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="I9" s="4" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+    <row r="10" spans="1:9" ht="176" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="6" t="s">
+      <c r="C10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="7" t="s">
+      <c r="F10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="I10" s="4" t="s">
         <v>139</v>
       </c>
     </row>
